--- a/Contract Management/ExpirationNotice/bin/Debug/入金確認20220209155652.xlsx
+++ b/Contract Management/ExpirationNotice/bin/Debug/入金確認20220209155652.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="T20_Contract" sheetId="2" r:id="rId2"/>
+    <x:sheet name="契約書一覧" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>管理番号</x:t>
+    <x:t>キー番号</x:t>
   </x:si>
   <x:si>
     <x:t>仮番号</x:t>
@@ -49,6 +49,9 @@
     <x:t>自動更新間隔</x:t>
   </x:si>
   <x:si>
+    <x:t>調査日</x:t>
+  </x:si>
+  <x:si>
     <x:t>取引先番号_全</x:t>
   </x:si>
   <x:si>
@@ -77,53 +80,6 @@
   </x:si>
   <x:si>
     <x:t>インド</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020/12/01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021/01/01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022/02/09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>㈱シーファイブ
-㈱アイ・イーグループ : 275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>契約条件の変更に関する覚書
-test
-test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>伊藤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>顧問料変更12万円
-test
-test</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -174,31 +130,24 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="1">
-    <x:dxf/>
-  </x:dxfs>
 </x:styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="T20_Contract" displayName="T20_Contract" ref="A1:U2" totalsRowShown="0">
-  <x:autoFilter ref="A1:U2"/>
-  <x:tableColumns count="21">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="契約書一覧" displayName="契約書一覧" ref="A1:V2" totalsRowShown="0">
+  <x:autoFilter ref="A1:V2"/>
+  <x:tableColumns count="22">
     <x:tableColumn id="1" name="ID"/>
-    <x:tableColumn id="2" name="管理番号"/>
+    <x:tableColumn id="2" name="キー番号"/>
     <x:tableColumn id="3" name="仮番号"/>
     <x:tableColumn id="4" name="枝番"/>
     <x:tableColumn id="5" name="旧番号"/>
@@ -208,16 +157,17 @@
     <x:tableColumn id="9" name="終了日"/>
     <x:tableColumn id="10" name="更新コード"/>
     <x:tableColumn id="11" name="自動更新間隔"/>
-    <x:tableColumn id="12" name="取引先番号_全"/>
-    <x:tableColumn id="13" name="取引先名_全" dataDxfId="0"/>
-    <x:tableColumn id="14" name="ヨミガナ_全"/>
-    <x:tableColumn id="15" name="契約書名" dataDxfId="0"/>
-    <x:tableColumn id="16" name="部署番号"/>
-    <x:tableColumn id="17" name="管理部署"/>
-    <x:tableColumn id="18" name="契約担当"/>
-    <x:tableColumn id="19" name="備考" dataDxfId="0"/>
-    <x:tableColumn id="20" name="削除"/>
-    <x:tableColumn id="21" name="インド"/>
+    <x:tableColumn id="12" name="調査日"/>
+    <x:tableColumn id="13" name="取引先番号_全"/>
+    <x:tableColumn id="14" name="取引先名_全"/>
+    <x:tableColumn id="15" name="ヨミガナ_全"/>
+    <x:tableColumn id="16" name="契約書名"/>
+    <x:tableColumn id="17" name="部署番号"/>
+    <x:tableColumn id="18" name="管理部署"/>
+    <x:tableColumn id="19" name="契約担当"/>
+    <x:tableColumn id="20" name="備考"/>
+    <x:tableColumn id="21" name="削除"/>
+    <x:tableColumn id="22" name="インド"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -511,13 +461,32 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U2"/>
+  <x:dimension ref="A1:V3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="6.375425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.925425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.465425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.165425" style="0" customWidth="1"/>
+    <x:col min="5" max="6" width="11.465425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.385425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="25.295425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="11.465425" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.305425" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.385425" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="11.465425" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="19.425425" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="17.125425" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="14.425425" style="0" customWidth="1"/>
+    <x:col min="16" max="19" width="13.775425" style="0" customWidth="1"/>
+    <x:col min="20" max="21" width="9.165425" style="0" customWidth="1"/>
+    <x:col min="22" max="22" width="9.605425" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21">
+    <x:row r="1" spans="1:22">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -581,67 +550,8 @@
       <x:c r="U1" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:21">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="V1" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="M2" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="S2" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="U2" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
